--- a/oscar.xlsx
+++ b/oscar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STOCK\Documents\GitHub\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F731DD-9EC2-49B1-882F-0499AEBF564E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1E2C7D-A9CD-4353-B237-687EA9B7D60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -358,6 +358,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
